--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -557,10 +557,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="2" spans="1:2">
       <x:c r="B2" s="1" t="s">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -61,7 +61,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="8">
+  <x:borders count="11">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -198,8 +198,59 @@
         <x:color rgb="FFFF0000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="1" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="1">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FFFF0000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -224,8 +275,29 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -256,6 +328,34 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -560,37 +660,37 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="2" spans="1:2">
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="8" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="9" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="B4" s="3" t="s">
+      <x:c r="B4" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="B5" s="4" t="s">
+      <x:c r="B5" s="11" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="B6" s="5" t="s">
+      <x:c r="B6" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="B7" s="6" t="s">
+      <x:c r="B7" s="13" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="B8" s="7" t="s">
+      <x:c r="B8" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -250,7 +250,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="15">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -275,18 +275,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -297,7 +285,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -330,32 +318,16 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -660,37 +632,37 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="2" spans="1:2">
-      <x:c r="B2" s="8" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="B3" s="9" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="B4" s="10" t="s">
+      <x:c r="B4" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="B5" s="11" t="s">
+      <x:c r="B5" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="B6" s="12" t="s">
+      <x:c r="B6" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="B7" s="13" t="s">
+      <x:c r="B7" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="B8" s="14" t="s">
+      <x:c r="B8" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -670,14 +670,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -44,7 +44,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -634,7 +634,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleBorder.xlsx
@@ -258,82 +258,82 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
